--- a/data/georgia_census/mcxeta-mtianeti/tianeti/healthcare_staff.xlsx
+++ b/data/georgia_census/mcxeta-mtianeti/tianeti/healthcare_staff.xlsx
@@ -1359,13 +1359,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B80155A-6E8A-49FE-BA20-85A87EA63BE3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9ECA113A-B899-4142-A004-1FCD886B2AF0}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96FCD7E8-D38C-48F8-931A-A8CC46D5DF8B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{554748BD-C399-46B8-869B-7169D757C859}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6962A79-A26C-495F-A1FF-14D49F365D9F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED76A46F-82F7-4EC5-AFF3-B21063B91D63}"/>
 </file>